--- a/TY1479_HIGH_V04.X/TY1479-HIGH_動作表.xlsx
+++ b/TY1479_HIGH_V04.X/TY1479-HIGH_動作表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="41">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -640,6 +640,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,7 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -945,34 +945,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1450,44 +1450,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1618,7 +1618,9 @@
       <c r="L7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="N7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1832,8 +1834,8 @@
       <c r="L15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>9</v>
+      <c r="M15" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>9</v>
